--- a/data/financial_statements/soci/CEG.xlsx
+++ b/data/financial_statements/soci/CEG.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +164,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,39 +523,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>43830</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6051000000</v>
@@ -546,7 +567,7 @@
         <v>5591000000</v>
       </c>
       <c r="E2">
-        <v>5532000000</v>
+        <v>5531000000</v>
       </c>
       <c r="F2">
         <v>4406000000</v>
@@ -562,8 +583,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.3734</v>
@@ -575,30 +596,30 @@
         <v>0.0058</v>
       </c>
       <c r="E3">
-        <v>0.2773</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>5946000000</v>
+        <v>4695000000</v>
       </c>
       <c r="C4">
-        <v>5058000000</v>
+        <v>3508000000</v>
       </c>
       <c r="D4">
-        <v>5035000000</v>
+        <v>3550000000</v>
       </c>
       <c r="E4">
-        <v>5470000000</v>
+        <v>4060000000</v>
       </c>
       <c r="F4">
         <v>1546000000</v>
       </c>
       <c r="G4">
-        <v>4350000000</v>
+        <v>1947000000</v>
       </c>
       <c r="H4">
         <v>4610000000</v>
@@ -608,26 +629,26 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>105000000</v>
+        <v>1356000000</v>
       </c>
       <c r="C5">
-        <v>407000000</v>
+        <v>1957000000</v>
       </c>
       <c r="D5">
-        <v>556000000</v>
+        <v>2041000000</v>
       </c>
       <c r="E5">
-        <v>62000000</v>
+        <v>1471000000</v>
       </c>
       <c r="F5">
         <v>2860000000</v>
       </c>
       <c r="G5">
-        <v>-197000000</v>
+        <v>2206000000</v>
       </c>
       <c r="H5">
         <v>949000000</v>
@@ -637,16 +658,16 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1134000000</v>
@@ -671,8 +692,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>-41000000</v>
@@ -697,8 +718,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>75000000</v>
@@ -723,26 +744,26 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>22000000</v>
+        <v>75000000</v>
       </c>
       <c r="C10">
-        <v>29000000</v>
+        <v>56000000</v>
       </c>
       <c r="D10">
-        <v>19000000</v>
+        <v>56000000</v>
       </c>
       <c r="E10">
-        <v>25000000</v>
+        <v>72000000</v>
       </c>
       <c r="F10">
         <v>77000000</v>
       </c>
       <c r="G10">
-        <v>28000000</v>
+        <v>76000000</v>
       </c>
       <c r="H10">
         <v>72000000</v>
@@ -752,26 +773,26 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>235000000</v>
+        <v>-271000000</v>
       </c>
       <c r="C11">
-        <v>355000000</v>
+        <v>-710000000</v>
       </c>
       <c r="D11">
-        <v>393000000</v>
+        <v>-374000000</v>
       </c>
       <c r="E11">
-        <v>78000000</v>
+        <v>163000000</v>
       </c>
       <c r="F11">
         <v>-192000000</v>
       </c>
       <c r="G11">
-        <v>-140000000</v>
+        <v>432000000</v>
       </c>
       <c r="H11">
         <v>95000000</v>
@@ -781,16 +802,16 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>-4000000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>-312000000</v>
@@ -802,7 +823,7 @@
         <v>61000000</v>
       </c>
       <c r="E13">
-        <v>160000000</v>
+        <v>161000000</v>
       </c>
       <c r="F13">
         <v>814000000</v>
@@ -818,8 +839,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>-123000000</v>
@@ -847,8 +868,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>-189000000</v>
@@ -873,16 +894,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E16">
         <v>-2000000</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>-4000000</v>
@@ -907,8 +928,8 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>-5000000</v>
@@ -933,8 +954,8 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
         <v>-188000000</v>
@@ -962,8 +983,8 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>-0.57</v>
@@ -988,8 +1009,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>-0.57</v>
@@ -1002,8 +1023,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>327000000</v>
@@ -1028,14 +1049,14 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>327000000</v>
+        <v>328000000</v>
       </c>
       <c r="C23">
-        <v>327000000</v>
+        <v>328000000</v>
       </c>
       <c r="D23">
         <v>328000000</v>
@@ -1054,26 +1075,26 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0174</v>
+        <v>0.2241</v>
       </c>
       <c r="C24">
-        <v>0.0745</v>
+        <v>0.3581</v>
       </c>
       <c r="D24">
-        <v>0.0994</v>
+        <v>0.3651</v>
       </c>
       <c r="E24">
-        <v>0.0112</v>
+        <v>0.266</v>
       </c>
       <c r="F24">
         <v>0.6491</v>
       </c>
       <c r="G24">
-        <v>-0.0474</v>
+        <v>0.5312</v>
       </c>
       <c r="H24">
         <v>0.1707</v>
@@ -1083,8 +1104,8 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>-0.0068</v>
@@ -1112,8 +1133,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>-0.0516</v>
@@ -1125,7 +1146,7 @@
         <v>0.0109</v>
       </c>
       <c r="E26">
-        <v>0.0289</v>
+        <v>0.0291</v>
       </c>
       <c r="F26">
         <v>0.1847</v>
@@ -1141,8 +1162,8 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
         <v>-0.0311</v>
@@ -1170,26 +1191,26 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>563000000</v>
+        <v>562000000</v>
       </c>
       <c r="C28">
-        <v>879000000</v>
+        <v>877000000</v>
       </c>
       <c r="D28">
-        <v>1021000000</v>
+        <v>1037000000</v>
       </c>
       <c r="E28">
-        <v>530000000</v>
+        <v>587000000</v>
       </c>
       <c r="F28">
         <v>2271000000</v>
       </c>
       <c r="G28">
-        <v>1025000000</v>
+        <v>1032000000</v>
       </c>
       <c r="H28">
         <v>304000000</v>
@@ -1199,8 +1220,8 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B29">
         <v>-41000000</v>
@@ -1225,8 +1246,8 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B30">
         <v>-193000000</v>
@@ -1251,16 +1272,16 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B32">
         <v>-193000000</v>
@@ -1272,7 +1293,7 @@
         <v>111000000</v>
       </c>
       <c r="E32">
-        <v>39000000</v>
+        <v>40000000</v>
       </c>
       <c r="F32">
         <v>633000000</v>
@@ -1288,8 +1309,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B33">
         <v>-0.5901999999999999</v>
@@ -1302,8 +1323,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B34">
         <v>-0.5884</v>
@@ -1316,8 +1337,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B35">
         <v>-0.5901999999999999</v>
@@ -1330,8 +1351,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B36">
         <v>-0.5884</v>
@@ -1344,8 +1365,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B37">
         <v>328000000</v>
@@ -1358,26 +1379,26 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="C38">
-        <v>0.1608</v>
+        <v>0.1605</v>
       </c>
       <c r="D38">
-        <v>0.1826</v>
+        <v>0.1855</v>
       </c>
       <c r="E38">
-        <v>0.0958</v>
+        <v>0.1061</v>
       </c>
       <c r="F38">
         <v>0.5154</v>
       </c>
       <c r="G38">
-        <v>0.2468</v>
+        <v>0.2485</v>
       </c>
       <c r="H38">
         <v>0.0547</v>
@@ -1387,20 +1408,20 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B39">
         <v>-0.1973</v>
       </c>
       <c r="C39">
-        <v>-0.0161</v>
+        <v>-0.0139</v>
       </c>
       <c r="D39">
-        <v>0.2416</v>
+        <v>0.2395</v>
       </c>
       <c r="E39">
-        <v>-0.4179</v>
+        <v>-0.418</v>
       </c>
       <c r="F39">
         <v>0.3021</v>
